--- a/React강좌.xlsx
+++ b/React강좌.xlsx
@@ -5,20 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seok\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seok\Desktop\개발\Graduate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F4C6813-193F-4D80-BA7E-E3213C599E1F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3805FC26-3667-4145-BEB5-365F14A1B64F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{8D8F7A3E-3A4C-48EA-AE50-53AF22253C3F}"/>
+    <workbookView xWindow="32340" yWindow="2580" windowWidth="2400" windowHeight="585" activeTab="3" xr2:uid="{8D8F7A3E-3A4C-48EA-AE50-53AF22253C3F}"/>
   </bookViews>
   <sheets>
     <sheet name="REACT" sheetId="1" r:id="rId1"/>
     <sheet name="REACT-hooks" sheetId="5" r:id="rId2"/>
     <sheet name="Redux" sheetId="3" r:id="rId3"/>
-    <sheet name="eslint" sheetId="4" r:id="rId4"/>
+    <sheet name="Redux-saga" sheetId="6" r:id="rId4"/>
+    <sheet name="eslint" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
     <t>React 강좌</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,10 +112,6 @@
   </si>
   <si>
     <t>useState</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>useCallback</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -187,6 +185,61 @@
   </si>
   <si>
     <t>hooks에서는 useSelect와 useDispatch를 사용하고 리액트에서는 하이오더 컴포넌트를 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>useSelector를 최대한 자주 쓰는게 좋음, 자주쓰면서 잘게 리덕스스테이트를 가져오는게 좋음 / 리렌더링 때문에</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>useCallback : 자식컴포넌트에 props로 전달할때는 useCallback 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동적 데이터는 하드코딩을 할 수 없고 함수를 만들어야 한다. =&gt; action에 넣을 데이터가 동적인 경우에는 action을 함수로 만든다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리액트 스테이트들은 폼에서 쓰고 , 최종본은 리덕스를 사용하는게 좋음(or 여러 컴포넌트가 같이 쓰는 스테이트들)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npm I redux-saga</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제점 : 바로바로 실행되기 때문에 특정 시간, 또는 동작 이후에 액션을 실행할 수 없다. =&gt; 리덕스는 비동기
+{type : LOG_IN, data: { id:'Jrun2g', password: '1234' } }
+-&gt; 서버쪽에 data가 전달되고,
+-&gt; 서버가 로그인 성공이라는 응답을 보내주고
+-&gt; 그걸 다시 받아서 로그인! 해야하는데 리덕스만으로는 불가하여 리덕스 사가 사용
+: 리덕스는 바로바로 적용되는 동기적인 작용밖에 못함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리덕스 떵크는 편리하지만 기능이 약함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Redux-saga (리덕스에서 비동기를 사용하기 위해 사용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제너레이터는 함수 실행을 중간에 멈출 수 있고 원할 때 재개할 수 있어 편하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제너레이터는 무한의 개념표현이나 비동기 처리할때 많이 쓰임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제너레이터가 어렵다면 사가도 패턴이 있어 패턴대로만 하면 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>call은 함수 동기적 호출
+fork는 함수 비동기적 호출
+put은 액션 dispatch</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -295,6 +348,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>151655</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>175200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2933701</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1681772</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B73D967-135B-48D0-9681-D7D6928F2D9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="151655" y="2480250"/>
+          <a:ext cx="2782046" cy="1506572"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3200401</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>101827</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5855403</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1533919</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF35932-144F-4083-9FC6-438DD34228D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3200401" y="2473552"/>
+          <a:ext cx="2655002" cy="1432092"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -646,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB4FE04A-1056-4EAC-8428-6FF5C512B256}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -666,7 +812,7 @@
     </row>
     <row r="2" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -676,17 +822,17 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -698,10 +844,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8819C134-92EB-4092-95A4-2C8F254EB41D}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -733,7 +879,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="33" x14ac:dyDescent="0.3">
@@ -748,36 +894,54 @@
     </row>
     <row r="6" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="66" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -787,6 +951,98 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B2169FF-6B20-40D7-8BD4-C1BE4486CE85}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="117.75" customWidth="1"/>
+    <col min="2" max="2" width="88.75" customWidth="1"/>
+    <col min="3" max="3" width="81.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:3" ht="99" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="144.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="121.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F97C623A-0D86-493E-B9F8-B174F538C73F}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -810,7 +1066,7 @@
     </row>
     <row r="2" spans="1:2" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
@@ -818,7 +1074,7 @@
     </row>
     <row r="3" spans="1:2" ht="247.5" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">

--- a/React강좌.xlsx
+++ b/React강좌.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seok\Desktop\개발\Graduate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3805FC26-3667-4145-BEB5-365F14A1B64F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1D3E00-33A7-46B6-8931-ED4D5274224F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32340" yWindow="2580" windowWidth="2400" windowHeight="585" activeTab="3" xr2:uid="{8D8F7A3E-3A4C-48EA-AE50-53AF22253C3F}"/>
   </bookViews>
@@ -20,7 +20,6 @@
     <sheet name="eslint" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
   <si>
     <t>React 강좌</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -240,6 +239,61 @@
     <t>call은 함수 동기적 호출
 fork는 함수 비동기적 호출
 put은 액션 dispatch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미들웨어 만드는 방법 : (currying 기법 - 인자 하나를 받아 다른 함수를 리턴)
+const middleware = (store) =&gt; (next) =&gt; (action) =&gt;{
+ console.log(action); // 다른 작업들은 여기에
+ next(action);
+};</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제너레이터는 함수 실행을 준간에 멈출 수 있고 기존 컴포넌트에 props같은 것을 추가할 때 쓴다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">하이오더 컴포넌트  =&gt; 훅스가 대체할 수 있음
+hoc(Component);
+const hoc = (Component) =&gt; () =&gt; {
+ return (
+  &lt;Component  hello="I'm hoc" /&gt;
+ )
+};
+------------------------------------- 두개를 붙이면
+connect(mapStateToProps)(Component);
+const hoc =  (mapStateToProps) = (Component) =&gt; () =&gt; {
+ return (
+  &lt;Component props={mapStateToProps()} /&gt;
+ )
+};
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">제너레이터의 yield* '1234'; 는 iterable : 반복 가능 값 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사가는 next를 알아서(이펙트에 따라) 해주는 제너레이터이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>take : 해당 액션이 dispatch되면 제너레이터를 next하는 이펙트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사가에서 동작하지 않아도 리듀서는 동작한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99%의 경우 while(true)를 사용함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>takeLatest : 이전 요청이 끝나지 않은게 있다면 이전 요청을 취소한다.
+동시에 여러 번 실행하면 마지막것만 받을 수 있음 -&gt; 로그인 버튼을 막누르면 서버로 여러 개 가는것을 제어헤줄 수 있음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -952,10 +1006,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B2169FF-6B20-40D7-8BD4-C1BE4486CE85}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1010,29 +1064,53 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="121.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
+    <row r="9" spans="1:3" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="B9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="280.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/React강좌.xlsx
+++ b/React강좌.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seok\Desktop\개발\Graduate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1D3E00-33A7-46B6-8931-ED4D5274224F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8094E8F0-9A16-4C3E-B843-DA6126292AF3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32340" yWindow="2580" windowWidth="2400" windowHeight="585" activeTab="3" xr2:uid="{8D8F7A3E-3A4C-48EA-AE50-53AF22253C3F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{8D8F7A3E-3A4C-48EA-AE50-53AF22253C3F}"/>
   </bookViews>
   <sheets>
     <sheet name="REACT" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
   <si>
     <t>React 강좌</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -236,21 +236,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>call은 함수 동기적 호출
-fork는 함수 비동기적 호출
-put은 액션 dispatch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>미들웨어 만드는 방법 : (currying 기법 - 인자 하나를 받아 다른 함수를 리턴)
 const middleware = (store) =&gt; (next) =&gt; (action) =&gt;{
  console.log(action); // 다른 작업들은 여기에
  next(action);
 };</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제너레이터는 함수 실행을 준간에 멈출 수 있고 기존 컴포넌트에 props같은 것을 추가할 때 쓴다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -292,8 +282,54 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>call은 함수 동기적 호출 : 요청 보내고 응답을 다받을 때까지 기다림
+fork는 함수 비동기적 호출 : 요청 보내고 응답받지 않아도 다음 실행
+put은 액션 dispatch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>race, cancel, select, throttle, debounce 이펙트 어떤용도 인지 확인하기
+race : 제일 먼저 도달에 성공한 함수만을 실행 시킨다.
+yield race({
+        waitting: delay(200),
+        stoped: take(getType(Actions.stopMonitoring))
+      });
+위의 코드에서 액션 타입이 stopMonitoring으로 바뀌지 않는 한 계속 waitting이 이긴다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select : 사가의 제너레이터 안에서 스토어의 상태를 가지고 올 때, 스토어 전체를 리턴한다.
+Const { monitoring, monitoringDuration } = yield select();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getType : 액션의 타입 값을 뽑아내는 함수
+import { getType } from "typesafe-actions";
+import * as Actions from "../actions";
+getType(Actions.startMonitoring);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cancel : 포크되었던 서브 프로세스를 취소한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제너레이터는 함수 실행을 중간에 멈출 수 있고 기존 컴포넌트에 props같은 것을 추가할 때 쓴다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>takeLatest : 이전 요청이 끝나지 않은게 있다면 이전 요청을 취소한다.
-동시에 여러 번 실행하면 마지막것만 받을 수 있음 -&gt; 로그인 버튼을 막누르면 서버로 여러 개 가는것을 제어헤줄 수 있음</t>
+동시에 여러 번 실행하면 마지막것만 받을 수 있음 -&gt; 로그인 버튼을 막누르면 서버로 여러 개 가는것을 제어헤줄 수 있음
+takeEvery와 takeLatest중 어떤것을 선택할까 고민될때 생각할때 예제
+버튼을 클릭할때마다 카운트가 1씩 증가해야한다. Every, 여러번중 한번만 선택되게한다 Latest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비동기일경우 다움과 같은 형식을 쓰면 좋음 (서버쪽에 갓다 와야하는 구나 -&gt; 리덕스 사가를 써야 겠구나)
+A_REQUEST
+A_SUCCESS
+A_FAILURE
+동기는 하나로 떨어지므로 리덕스만으로 처리 가능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -900,8 +936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8819C134-92EB-4092-95A4-2C8F254EB41D}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -994,8 +1030,10 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
+    <row r="15" spans="1:3" ht="99" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1006,10 +1044,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B2169FF-6B20-40D7-8BD4-C1BE4486CE85}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1061,12 +1099,12 @@
     </row>
     <row r="8" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -1074,42 +1112,62 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="280.5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="66" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+    <row r="19" spans="1:1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/React강좌.xlsx
+++ b/React강좌.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seok\Desktop\개발\Graduate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8094E8F0-9A16-4C3E-B843-DA6126292AF3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6D48D6-151F-4C37-BAD0-2FF3DFA4DB02}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{8D8F7A3E-3A4C-48EA-AE50-53AF22253C3F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8D8F7A3E-3A4C-48EA-AE50-53AF22253C3F}"/>
   </bookViews>
   <sheets>
     <sheet name="REACT" sheetId="1" r:id="rId1"/>
-    <sheet name="REACT-hooks" sheetId="5" r:id="rId2"/>
-    <sheet name="Redux" sheetId="3" r:id="rId3"/>
-    <sheet name="Redux-saga" sheetId="6" r:id="rId4"/>
-    <sheet name="eslint" sheetId="4" r:id="rId5"/>
+    <sheet name="next" sheetId="9" r:id="rId2"/>
+    <sheet name="REACT-hooks" sheetId="5" r:id="rId3"/>
+    <sheet name="Redux" sheetId="3" r:id="rId4"/>
+    <sheet name="Redux-saga" sheetId="6" r:id="rId5"/>
+    <sheet name="eslint" sheetId="4" r:id="rId6"/>
+    <sheet name="Node" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="67">
   <si>
     <t>React 강좌</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -330,6 +332,46 @@
 A_SUCCESS
 A_FAILURE
 동기는 하나로 떨어지므로 리덕스만으로 처리 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>axios : 서버에 요청을 보내주는 모듈 : 구글도 요놈을 씀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>form에서 preventDefault하지 않으면 페이지가 넘어가버림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>useEffect안에는 객체를 넣으면 비교하기 어렵기 떄문에 객체안의 값으로 비교하는게 좋음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>next Roeter로 페이지 이동하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>import Router from 'next/router';</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자바스크립트에서 객체는 undefined일수 있으므로 &amp;&amp; (가드)를 항상 해줘야함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Router.push('/'); 메인페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>immutable, immer  불변성 : 바뀔 값만 새로운 객체로 ! …state,를 사용 대체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>useCallback에서 state를 쓰려면 state값을 []에 넣어줘야 함 , 객체말고 일반값을 넣어주는게 좋음 =&gt; 객체는 비교가 어렵기 떄문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리액트랑 제이쿼리를 웬만하면 같이 쓰지 않는게 좋다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -830,10 +872,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8D869DE-FD3F-4F65-B5E3-5011AF9DE9AA}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -871,6 +913,31 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -879,11 +946,54 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB4FE04A-1056-4EAC-8428-6FF5C512B256}">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BB0AB2E-E295-44E1-A9BC-F60583DA324F}">
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="133" customWidth="1"/>
+    <col min="2" max="2" width="77.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB4FE04A-1056-4EAC-8428-6FF5C512B256}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -925,6 +1035,11 @@
         <v>30</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -932,12 +1047,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8819C134-92EB-4092-95A4-2C8F254EB41D}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1042,7 +1157,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B2169FF-6B20-40D7-8BD4-C1BE4486CE85}">
   <dimension ref="A1:C21"/>
   <sheetViews>
@@ -1178,7 +1293,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F97C623A-0D86-493E-B9F8-B174F538C73F}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -1223,4 +1338,47 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{519216C0-054B-4582-A0FF-D1CF3450CDBB}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="91.375" customWidth="1"/>
+    <col min="2" max="2" width="68.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>